--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11660"/>
+    <workbookView windowWidth="28800" windowHeight="11660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="67">
   <si>
     <t>48-57</t>
   </si>
@@ -212,6 +212,9 @@
     <t>&gt;&gt;=</t>
   </si>
   <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
     <t>},</t>
   </si>
 </sst>
@@ -221,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -307,6 +310,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -314,7 +324,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,14 +379,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,32 +409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,17 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,24 +437,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,13 +462,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,49 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,43 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,13 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +576,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,19 +612,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,30 +684,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -725,17 +719,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,11 +747,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,85 +773,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,65 +860,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,11 +928,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,13 +943,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -964,19 +961,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,36 +1316,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="23.2"/>
   <cols>
-    <col min="1" max="1" width="12.1730769230769" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="13"/>
-    <col min="3" max="10" width="9.23076923076923" style="10"/>
-    <col min="11" max="11" width="9.23076923076923" style="14"/>
-    <col min="12" max="17" width="9.23076923076923" style="10"/>
-    <col min="18" max="18" width="9.23076923076923" style="15"/>
-    <col min="19" max="19" width="9.23076923076923" style="16"/>
-    <col min="20" max="26" width="9.23076923076923" style="10"/>
-    <col min="27" max="27" width="9.23076923076923" style="16"/>
-    <col min="28" max="31" width="9.23076923076923" style="10"/>
-    <col min="32" max="32" width="9.23076923076923" style="16"/>
-    <col min="33" max="33" width="9.23076923076923" style="10"/>
-    <col min="34" max="34" width="9.23076923076923" style="16"/>
-    <col min="35" max="38" width="9.23076923076923" style="10"/>
-    <col min="39" max="16384" width="9.23076923076923" style="17"/>
+    <col min="1" max="1" width="12.1730769230769" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="11"/>
+    <col min="3" max="10" width="9.23076923076923" style="3"/>
+    <col min="11" max="11" width="9.23076923076923" style="12"/>
+    <col min="12" max="17" width="9.23076923076923" style="3"/>
+    <col min="18" max="18" width="9.23076923076923" style="13"/>
+    <col min="19" max="19" width="9.23076923076923" style="8"/>
+    <col min="20" max="26" width="9.23076923076923" style="3"/>
+    <col min="27" max="27" width="9.23076923076923" style="8"/>
+    <col min="28" max="31" width="9.23076923076923" style="3"/>
+    <col min="32" max="32" width="9.23076923076923" style="8"/>
+    <col min="33" max="33" width="9.23076923076923" style="3"/>
+    <col min="34" max="34" width="9.23076923076923" style="8"/>
+    <col min="35" max="38" width="9.23076923076923" style="3"/>
+    <col min="39" max="16384" width="9.23076923076923" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:38">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
+    <row r="1" s="3" customFormat="1" spans="1:38">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1">
         <v>0</v>
       </c>
@@ -1382,7 +1370,7 @@
       <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="5">
         <v>8</v>
       </c>
       <c r="L1" s="1">
@@ -1467,9 +1455,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:38">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+    <row r="2" s="9" customFormat="1" spans="1:38">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1">
         <v>32</v>
       </c>
@@ -1494,7 +1482,7 @@
       <c r="J2" s="1">
         <v>39</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>40</v>
       </c>
       <c r="L2" s="1">
@@ -1518,7 +1506,7 @@
       <c r="R2" s="6">
         <v>47</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="1">
@@ -1542,7 +1530,7 @@
       <c r="Z2" s="1">
         <v>64</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AB2" s="1">
@@ -1563,7 +1551,7 @@
       <c r="AG2" s="1">
         <v>96</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="AI2" s="1">
@@ -1579,127 +1567,127 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="24" spans="1:38">
-      <c r="A3" s="18" t="s">
+    <row r="3" s="3" customFormat="1" ht="24" spans="1:38">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AB3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AC3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AD3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AG3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="26" t="s">
+      <c r="AH3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="27" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="27" t="s">
+      <c r="AK3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="27" t="s">
+      <c r="AL3" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1711,7 +1699,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1726,7 +1714,7 @@
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -1812,10 +1800,10 @@
       </c>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1842,7 +1830,7 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="1">
@@ -1928,10 +1916,10 @@
       </c>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -1958,7 +1946,7 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>2</v>
       </c>
       <c r="L6" s="1">
@@ -2044,10 +2032,10 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -2074,7 +2062,7 @@
       <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>-1</v>
       </c>
       <c r="L7" s="1">
@@ -2160,10 +2148,10 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -2190,7 +2178,7 @@
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>-1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2211,10 +2199,10 @@
       <c r="Q8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="R8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -2253,7 +2241,7 @@
       <c r="AE8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF8" s="9" t="s">
+      <c r="AF8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AG8" s="1" t="s">
@@ -2276,10 +2264,10 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -2306,7 +2294,7 @@
       <c r="J9" s="1">
         <v>-1</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>-1</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2327,7 +2315,7 @@
       <c r="Q9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="S9" s="7">
@@ -2392,10 +2380,10 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -2422,7 +2410,7 @@
       <c r="J10" s="1">
         <v>-1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>-1</v>
       </c>
       <c r="L10" s="1">
@@ -2443,7 +2431,7 @@
       <c r="Q10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="S10" s="7">
@@ -2508,10 +2496,10 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -2541,8 +2529,8 @@
       <c r="K11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>42</v>
+      <c r="L11" s="1">
+        <v>-1</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>42</v>
@@ -2559,10 +2547,10 @@
       <c r="Q11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="9" t="s">
+      <c r="R11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -2586,7 +2574,7 @@
       <c r="Z11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AB11" s="1" t="s">
@@ -2601,13 +2589,13 @@
       <c r="AE11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AF11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH11" s="9" t="s">
+      <c r="AH11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AI11" s="1" t="s">
@@ -2624,10 +2612,10 @@
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -2654,7 +2642,7 @@
       <c r="J12" s="1">
         <v>-1</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>-1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2675,7 +2663,7 @@
       <c r="Q12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="S12" s="7">
@@ -2740,10 +2728,10 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -2770,7 +2758,7 @@
       <c r="J13" s="1">
         <v>-1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>-1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2791,7 +2779,7 @@
       <c r="Q13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="S13" s="7">
@@ -2809,8 +2797,8 @@
       <c r="W13" s="1">
         <v>11</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>42</v>
+      <c r="X13" s="1">
+        <v>35</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>42</v>
@@ -2856,10 +2844,10 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>10</v>
       </c>
       <c r="C14" s="1">
@@ -2886,11 +2874,11 @@
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>42</v>
+      <c r="K14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>42</v>
@@ -2907,7 +2895,7 @@
       <c r="Q14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="S14" s="7">
@@ -2972,10 +2960,10 @@
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>11</v>
       </c>
       <c r="C15" s="1">
@@ -3002,7 +2990,7 @@
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>-1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -3088,10 +3076,10 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>12</v>
       </c>
       <c r="C16" s="1">
@@ -3118,14 +3106,14 @@
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>-1</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>42</v>
+      <c r="M16" s="1">
+        <v>-1</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>42</v>
@@ -3204,10 +3192,10 @@
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>13</v>
       </c>
       <c r="C17" s="1">
@@ -3234,7 +3222,7 @@
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>-1</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -3320,10 +3308,10 @@
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>14</v>
       </c>
       <c r="C18" s="1">
@@ -3436,10 +3424,10 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>15</v>
       </c>
       <c r="C19" s="1">
@@ -3466,7 +3454,7 @@
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>-1</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -3552,10 +3540,10 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>16</v>
       </c>
       <c r="C20" s="1">
@@ -3582,7 +3570,7 @@
       <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>-1</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -3668,10 +3656,10 @@
       </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>17</v>
       </c>
       <c r="C21" s="1">
@@ -3698,7 +3686,7 @@
       <c r="J21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>-1</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -3784,10 +3772,10 @@
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>18</v>
       </c>
       <c r="C22" s="1">
@@ -3814,7 +3802,7 @@
       <c r="J22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <v>-1</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3900,10 +3888,10 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="16">
         <v>19</v>
       </c>
       <c r="C23" s="1">
@@ -3930,7 +3918,7 @@
       <c r="J23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>-1</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -4016,10 +4004,10 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="16">
         <v>20</v>
       </c>
       <c r="C24" s="1">
@@ -4046,7 +4034,7 @@
       <c r="J24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>-1</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -4132,10 +4120,10 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="16">
         <v>21</v>
       </c>
       <c r="C25" s="1">
@@ -4162,7 +4150,7 @@
       <c r="J25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <v>-1</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -4248,10 +4236,10 @@
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>22</v>
       </c>
       <c r="C26" s="1">
@@ -4278,7 +4266,7 @@
       <c r="J26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>-1</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -4364,10 +4352,10 @@
       </c>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <v>23</v>
       </c>
       <c r="C27" s="1">
@@ -4394,7 +4382,7 @@
       <c r="J27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="5">
         <v>-1</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -4480,10 +4468,10 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <v>24</v>
       </c>
       <c r="C28" s="1">
@@ -4510,7 +4498,7 @@
       <c r="J28" s="1">
         <v>-1</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="5">
         <v>-1</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -4596,10 +4584,10 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <v>25</v>
       </c>
       <c r="C29" s="1">
@@ -4626,7 +4614,7 @@
       <c r="J29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <v>-1</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -4712,10 +4700,10 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <v>27</v>
       </c>
       <c r="C30" s="1">
@@ -4742,7 +4730,7 @@
       <c r="J30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="5">
         <v>-1</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -4828,10 +4816,10 @@
       </c>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="16">
         <v>28</v>
       </c>
       <c r="C31" s="1">
@@ -4944,10 +4932,10 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="16">
         <v>29</v>
       </c>
       <c r="C32" s="1">
@@ -4974,7 +4962,7 @@
       <c r="J32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <v>-1</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -5060,10 +5048,10 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="16">
         <v>30</v>
       </c>
       <c r="C33" s="1">
@@ -5090,7 +5078,7 @@
       <c r="J33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="5">
         <v>-1</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -5176,10 +5164,10 @@
       </c>
     </row>
     <row r="34" spans="1:38">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="16">
         <v>31</v>
       </c>
       <c r="C34" s="1">
@@ -5206,7 +5194,7 @@
       <c r="J34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <v>-1</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -5292,10 +5280,10 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="16">
         <v>32</v>
       </c>
       <c r="C35" s="1">
@@ -5408,10 +5396,10 @@
       </c>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="16">
         <v>33</v>
       </c>
       <c r="C36" s="1">
@@ -5438,7 +5426,7 @@
       <c r="J36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <v>-1</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -5524,10 +5512,10 @@
       </c>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="16">
         <v>34</v>
       </c>
       <c r="C37" s="1">
@@ -5554,7 +5542,7 @@
       <c r="J37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>-1</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -5636,6 +5624,122 @@
         <v>42</v>
       </c>
       <c r="AL37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="11">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5648,10 +5752,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:AL34"/>
+    <sheetView tabSelected="1" topLeftCell="U32" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5669,7 +5773,7 @@
       <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5684,7 +5788,7 @@
       <c r="I1" s="1">
         <v>2</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="5">
         <v>0</v>
       </c>
       <c r="K1" s="1">
@@ -5769,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="AL1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="23.2" spans="1:38">
@@ -5800,7 +5904,7 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
       <c r="K2" s="1">
@@ -5885,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="23.2" spans="1:38">
@@ -5916,7 +6020,7 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>2</v>
       </c>
       <c r="K3" s="1">
@@ -6001,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="23.2" spans="1:38">
@@ -6032,11 +6136,11 @@
       <c r="I4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
+      <c r="J4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
       </c>
       <c r="L4" s="1">
         <v>-1</v>
@@ -6117,7 +6221,7 @@
         <v>42</v>
       </c>
       <c r="AL4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="23.2" spans="1:38">
@@ -6148,7 +6252,7 @@
       <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -6169,10 +6273,10 @@
       <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -6211,7 +6315,7 @@
       <c r="AD5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AF5" s="1" t="s">
@@ -6233,7 +6337,7 @@
         <v>42</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="23.2" spans="1:38">
@@ -6264,7 +6368,7 @@
       <c r="I6" s="1">
         <v>-1</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>-1</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -6285,7 +6389,7 @@
       <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R6" s="7">
@@ -6349,7 +6453,7 @@
         <v>42</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="23.2" spans="1:38">
@@ -6380,7 +6484,7 @@
       <c r="I7" s="1">
         <v>-1</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>-1</v>
       </c>
       <c r="K7" s="1">
@@ -6401,7 +6505,7 @@
       <c r="P7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R7" s="7">
@@ -6465,7 +6569,7 @@
         <v>42</v>
       </c>
       <c r="AL7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="23.2" spans="1:38">
@@ -6499,8 +6603,8 @@
       <c r="J8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
+      <c r="K8" s="1">
+        <v>-1</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
@@ -6517,10 +6621,10 @@
       <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -6544,7 +6648,7 @@
       <c r="Y8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AA8" s="1" t="s">
@@ -6559,13 +6663,13 @@
       <c r="AD8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AE8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AG8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -6581,7 +6685,7 @@
         <v>42</v>
       </c>
       <c r="AL8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="23.2" spans="1:38">
@@ -6612,7 +6716,7 @@
       <c r="I9" s="1">
         <v>-1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -6633,7 +6737,7 @@
       <c r="P9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R9" s="7">
@@ -6697,7 +6801,7 @@
         <v>42</v>
       </c>
       <c r="AL9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="23.2" spans="1:38">
@@ -6728,7 +6832,7 @@
       <c r="I10" s="1">
         <v>-1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>-1</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -6749,7 +6853,7 @@
       <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R10" s="7">
@@ -6767,8 +6871,8 @@
       <c r="V10" s="1">
         <v>11</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>42</v>
+      <c r="W10" s="1">
+        <v>35</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>42</v>
@@ -6813,7 +6917,7 @@
         <v>42</v>
       </c>
       <c r="AL10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="23.2" spans="1:38">
@@ -6844,11 +6948,11 @@
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
+      <c r="J11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>42</v>
@@ -6865,7 +6969,7 @@
       <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R11" s="7">
@@ -6929,7 +7033,7 @@
         <v>42</v>
       </c>
       <c r="AL11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="23.2" spans="1:38">
@@ -6960,7 +7064,7 @@
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>-1</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -7045,7 +7149,7 @@
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="23.2" spans="1:38">
@@ -7076,14 +7180,14 @@
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>-1</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>42</v>
+      <c r="L13" s="1">
+        <v>-1</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>42</v>
@@ -7161,7 +7265,7 @@
         <v>42</v>
       </c>
       <c r="AL13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="23.2" spans="1:38">
@@ -7192,7 +7296,7 @@
       <c r="I14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>-1</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -7277,7 +7381,7 @@
         <v>42</v>
       </c>
       <c r="AL14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="23.2" spans="1:38">
@@ -7393,7 +7497,7 @@
         <v>42</v>
       </c>
       <c r="AL15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="23.2" spans="1:38">
@@ -7424,7 +7528,7 @@
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>-1</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -7509,7 +7613,7 @@
         <v>42</v>
       </c>
       <c r="AL16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="23.2" spans="1:38">
@@ -7540,7 +7644,7 @@
       <c r="I17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>-1</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -7576,8 +7680,8 @@
       <c r="U17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>42</v>
+      <c r="V17" s="1">
+        <v>17</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>42</v>
@@ -7625,7 +7729,7 @@
         <v>42</v>
       </c>
       <c r="AL17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" ht="23.2" spans="1:38">
@@ -7656,7 +7760,7 @@
       <c r="I18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>-1</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -7741,7 +7845,7 @@
         <v>42</v>
       </c>
       <c r="AL18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="23.2" spans="1:38">
@@ -7772,7 +7876,7 @@
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>-1</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -7857,7 +7961,7 @@
         <v>42</v>
       </c>
       <c r="AL19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="23.2" spans="1:38">
@@ -7888,7 +7992,7 @@
       <c r="I20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>-1</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -7973,7 +8077,7 @@
         <v>42</v>
       </c>
       <c r="AL20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="23.2" spans="1:38">
@@ -8004,7 +8108,7 @@
       <c r="I21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>-1</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -8089,7 +8193,7 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="23.2" spans="1:38">
@@ -8120,7 +8224,7 @@
       <c r="I22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>-1</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -8205,7 +8309,7 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="23.2" spans="1:38">
@@ -8236,7 +8340,7 @@
       <c r="I23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>-1</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -8321,7 +8425,7 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="23.2" spans="1:38">
@@ -8352,7 +8456,7 @@
       <c r="I24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>-1</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -8437,7 +8541,7 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="23.2" spans="1:38">
@@ -8468,7 +8572,7 @@
       <c r="I25" s="1">
         <v>-1</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>-1</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -8553,7 +8657,7 @@
         <v>42</v>
       </c>
       <c r="AL25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="23.2" spans="1:38">
@@ -8584,7 +8688,7 @@
       <c r="I26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <v>-1</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -8669,7 +8773,7 @@
         <v>42</v>
       </c>
       <c r="AL26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="23.2" spans="1:38">
@@ -8700,7 +8804,7 @@
       <c r="I27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="5">
         <v>-1</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -8785,7 +8889,7 @@
         <v>42</v>
       </c>
       <c r="AL27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="23.2" spans="1:38">
@@ -8901,7 +9005,7 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="23.2" spans="1:38">
@@ -8932,7 +9036,7 @@
       <c r="I29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <v>-1</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -9017,7 +9121,7 @@
         <v>42</v>
       </c>
       <c r="AL29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="23.2" spans="1:38">
@@ -9048,7 +9152,7 @@
       <c r="I30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>-1</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -9133,7 +9237,7 @@
         <v>42</v>
       </c>
       <c r="AL30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" ht="23.2" spans="1:38">
@@ -9164,7 +9268,7 @@
       <c r="I31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>-1</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -9249,7 +9353,7 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="23.2" spans="1:38">
@@ -9365,7 +9469,7 @@
         <v>42</v>
       </c>
       <c r="AL32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" ht="23.2" spans="1:38">
@@ -9396,7 +9500,7 @@
       <c r="I33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="5">
         <v>-1</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -9481,7 +9585,7 @@
         <v>42</v>
       </c>
       <c r="AL33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" ht="23.2" spans="1:38">
@@ -9512,7 +9616,7 @@
       <c r="I34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <v>-1</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -9597,7 +9701,123 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" ht="23.2" spans="1:38">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="67">
   <si>
     <t>48-57</t>
   </si>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -310,21 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +324,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -347,7 +363,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -362,16 +378,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,46 +423,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,17 +445,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,19 +468,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,73 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,13 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,31 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,12 +606,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -662,6 +662,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -705,16 +718,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,26 +767,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,152 +786,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,7 +941,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +956,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -961,6 +977,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +990,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1318,34 +1340,34 @@
   <sheetPr/>
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4:AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="23.2"/>
   <cols>
-    <col min="1" max="1" width="12.1730769230769" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="11"/>
-    <col min="3" max="10" width="9.23076923076923" style="3"/>
-    <col min="11" max="11" width="9.23076923076923" style="12"/>
-    <col min="12" max="17" width="9.23076923076923" style="3"/>
-    <col min="18" max="18" width="9.23076923076923" style="13"/>
-    <col min="19" max="19" width="9.23076923076923" style="8"/>
-    <col min="20" max="26" width="9.23076923076923" style="3"/>
-    <col min="27" max="27" width="9.23076923076923" style="8"/>
-    <col min="28" max="31" width="9.23076923076923" style="3"/>
-    <col min="32" max="32" width="9.23076923076923" style="8"/>
-    <col min="33" max="33" width="9.23076923076923" style="3"/>
-    <col min="34" max="34" width="9.23076923076923" style="8"/>
-    <col min="35" max="38" width="9.23076923076923" style="3"/>
-    <col min="39" max="16384" width="9.23076923076923" style="14"/>
+    <col min="1" max="1" width="12.1730769230769" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="12"/>
+    <col min="3" max="10" width="9.23076923076923" style="9"/>
+    <col min="11" max="11" width="9.23076923076923" style="13"/>
+    <col min="12" max="17" width="9.23076923076923" style="9"/>
+    <col min="18" max="18" width="9.23076923076923" style="14"/>
+    <col min="19" max="19" width="9.23076923076923" style="15"/>
+    <col min="20" max="26" width="9.23076923076923" style="9"/>
+    <col min="27" max="27" width="9.23076923076923" style="15"/>
+    <col min="28" max="31" width="9.23076923076923" style="9"/>
+    <col min="32" max="32" width="9.23076923076923" style="15"/>
+    <col min="33" max="33" width="9.23076923076923" style="9"/>
+    <col min="34" max="34" width="9.23076923076923" style="15"/>
+    <col min="35" max="38" width="9.23076923076923" style="9"/>
+    <col min="39" max="16384" width="9.23076923076923" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:38">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
+    <row r="1" s="9" customFormat="1" spans="1:38">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>0</v>
       </c>
@@ -1455,9 +1477,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:38">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+    <row r="2" s="10" customFormat="1" spans="1:38">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <v>32</v>
       </c>
@@ -1506,7 +1528,7 @@
       <c r="R2" s="6">
         <v>47</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="1">
@@ -1530,7 +1552,7 @@
       <c r="Z2" s="1">
         <v>64</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AB2" s="1">
@@ -1567,127 +1589,127 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="24" spans="1:38">
-      <c r="A3" s="15" t="s">
+    <row r="3" s="9" customFormat="1" ht="24" spans="1:38">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AA3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="AF3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AG3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="21" t="s">
+      <c r="AH3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AK3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AL3" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="20">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1748,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W4" s="1">
         <v>24</v>
       </c>
       <c r="X4" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1800,10 +1822,10 @@
       </c>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1916,10 +1938,10 @@
       </c>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="20">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -2032,10 +2054,10 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="20">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -2148,10 +2170,10 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="20">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -2264,10 +2286,10 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="20">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -2380,10 +2402,10 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="20">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -2496,10 +2518,10 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="20">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -2612,10 +2634,10 @@
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="20">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -2728,10 +2750,10 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="20">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -2798,7 +2820,7 @@
         <v>11</v>
       </c>
       <c r="X13" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>42</v>
@@ -2844,10 +2866,10 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="20">
         <v>10</v>
       </c>
       <c r="C14" s="1">
@@ -2960,10 +2982,10 @@
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="20">
         <v>11</v>
       </c>
       <c r="C15" s="1">
@@ -3076,10 +3098,10 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="20">
         <v>12</v>
       </c>
       <c r="C16" s="1">
@@ -3109,8 +3131,8 @@
       <c r="K16" s="5">
         <v>-1</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>42</v>
+      <c r="L16" s="1">
+        <v>-1</v>
       </c>
       <c r="M16" s="1">
         <v>-1</v>
@@ -3118,8 +3140,8 @@
       <c r="N16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>42</v>
+      <c r="O16" s="1">
+        <v>-1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>42</v>
@@ -3192,10 +3214,10 @@
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="20">
         <v>13</v>
       </c>
       <c r="C17" s="1">
@@ -3308,10 +3330,10 @@
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="20">
         <v>14</v>
       </c>
       <c r="C18" s="1">
@@ -3424,10 +3446,10 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="20">
         <v>15</v>
       </c>
       <c r="C19" s="1">
@@ -3540,10 +3562,10 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="20">
         <v>16</v>
       </c>
       <c r="C20" s="1">
@@ -3656,10 +3678,10 @@
       </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="20">
         <v>17</v>
       </c>
       <c r="C21" s="1">
@@ -3772,10 +3794,10 @@
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="20">
         <v>18</v>
       </c>
       <c r="C22" s="1">
@@ -3888,10 +3910,10 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="20">
         <v>19</v>
       </c>
       <c r="C23" s="1">
@@ -4004,10 +4026,10 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="20">
         <v>20</v>
       </c>
       <c r="C24" s="1">
@@ -4120,10 +4142,10 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="20">
         <v>21</v>
       </c>
       <c r="C25" s="1">
@@ -4236,10 +4258,10 @@
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="20">
         <v>22</v>
       </c>
       <c r="C26" s="1">
@@ -4352,10 +4374,10 @@
       </c>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="20">
         <v>23</v>
       </c>
       <c r="C27" s="1">
@@ -4468,10 +4490,10 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="20">
         <v>24</v>
       </c>
       <c r="C28" s="1">
@@ -4584,10 +4606,10 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="20">
         <v>25</v>
       </c>
       <c r="C29" s="1">
@@ -4700,74 +4722,74 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="20">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="1">
         <v>27</v>
       </c>
-      <c r="C30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="5">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>28</v>
-      </c>
-      <c r="W30" s="1">
-        <v>29</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>42</v>
@@ -4816,11 +4838,11 @@
       </c>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="16">
-        <v>28</v>
+      <c r="B31" s="20">
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <v>-1</v>
@@ -4883,7 +4905,7 @@
         <v>42</v>
       </c>
       <c r="W31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>42</v>
@@ -4932,11 +4954,11 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="16">
-        <v>29</v>
+      <c r="B32" s="20">
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <v>-1</v>
@@ -5048,11 +5070,11 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="16">
-        <v>30</v>
+      <c r="B33" s="20">
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <v>-1</v>
@@ -5164,77 +5186,77 @@
       </c>
     </row>
     <row r="34" spans="1:38">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="20">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" s="1">
+        <v>32</v>
+      </c>
+      <c r="X34" s="1">
         <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="5">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W34" s="1">
-        <v>33</v>
-      </c>
-      <c r="X34" s="1">
-        <v>32</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>42</v>
@@ -5280,11 +5302,11 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="16">
-        <v>32</v>
+      <c r="B35" s="20">
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <v>-1</v>
@@ -5396,11 +5418,11 @@
       </c>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="16">
-        <v>33</v>
+      <c r="B36" s="20">
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <v>-1</v>
@@ -5512,11 +5534,11 @@
       </c>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="16">
-        <v>34</v>
+      <c r="B37" s="20">
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <v>-1</v>
@@ -5628,11 +5650,11 @@
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="11">
-        <v>35</v>
+      <c r="B38" s="12">
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -5754,8 +5776,8 @@
   <sheetPr/>
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U32" workbookViewId="0">
-      <selection activeCell="AL35" sqref="AL35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5822,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1">
         <v>24</v>
       </c>
       <c r="W1" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1">
         <v>0</v>
@@ -6872,7 +6894,7 @@
         <v>11</v>
       </c>
       <c r="W10" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>42</v>
@@ -7183,8 +7205,8 @@
       <c r="J13" s="5">
         <v>-1</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>42</v>
+      <c r="K13" s="1">
+        <v>-1</v>
       </c>
       <c r="L13" s="1">
         <v>-1</v>
@@ -7192,8 +7214,8 @@
       <c r="M13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>42</v>
+      <c r="N13" s="1">
+        <v>-1</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>42</v>
@@ -8838,10 +8860,10 @@
         <v>42</v>
       </c>
       <c r="U27" s="1">
+        <v>27</v>
+      </c>
+      <c r="V27" s="1">
         <v>28</v>
-      </c>
-      <c r="V27" s="1">
-        <v>29</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>42</v>
@@ -8957,7 +8979,7 @@
         <v>42</v>
       </c>
       <c r="V28" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>42</v>
@@ -9305,10 +9327,10 @@
         <v>42</v>
       </c>
       <c r="V31" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W31" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>42</v>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="170">
   <si>
     <t>48-57</t>
   </si>
@@ -906,13 +906,16 @@
     <t>pop;push id</t>
   </si>
   <si>
-    <t>pop; push (,Fe,)</t>
+    <t>pop;push (,Fe,)</t>
   </si>
   <si>
     <t>push E</t>
   </si>
   <si>
     <t>pop;push temp;</t>
+  </si>
+  <si>
+    <t>push temp</t>
   </si>
   <si>
     <t>temp</t>
@@ -11350,11 +11353,11 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -12447,47 +12450,47 @@
       <c r="I15" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>42</v>
+      <c r="J15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>42</v>
+        <v>158</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="U15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="W15" s="21" t="s">
-        <v>42</v>
+        <v>158</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="X15" s="21" t="s">
         <v>42</v>
@@ -12499,10 +12502,10 @@
     <row r="16" ht="229" spans="2:25">
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>91</v>
@@ -12576,7 +12579,7 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -12600,7 +12603,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="1"/>
       <c r="G18" s="2"/>
@@ -12624,7 +12627,7 @@
     </row>
     <row r="19" ht="53" spans="7:24">
       <c r="G19" s="60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -12666,16 +12669,16 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E21" s="1"/>
       <c r="G21" s="2"/>
@@ -12699,13 +12702,13 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -380,6 +380,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>jiangxiankun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+栈内无表达式则push temp</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C18" authorId="0">
       <text>
         <r>
@@ -409,7 +431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="169">
   <si>
     <t>48-57</t>
   </si>
@@ -934,10 +956,6 @@
 *,F,Ft’
 /,F,Ft’
 %,F,Ft’</t>
-  </si>
-  <si>
-    <t>pop;
-pushOp (;</t>
   </si>
   <si>
     <t>常数
@@ -11378,7 +11396,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -12589,19 +12607,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="36" spans="2:24">
+    <row r="17" s="1" customFormat="1" spans="2:24">
       <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="20"/>
-      <c r="F17" s="26" t="s">
-        <v>91</v>
-      </c>
+      <c r="F17" s="26"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
-        <v>161</v>
-      </c>
+      <c r="H17" s="28"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -12624,7 +12636,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
@@ -12648,7 +12660,7 @@
     </row>
     <row r="19" ht="53" spans="7:24">
       <c r="G19" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -12690,16 +12702,16 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="3"/>
@@ -12723,13 +12735,13 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -11392,11 +11392,11 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -11816,8 +11816,8 @@
       <c r="K6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>42</v>
+      <c r="L6" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>42</v>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -938,7 +938,7 @@
     <t>pop;push funcv</t>
   </si>
   <si>
-    <t>push E</t>
+    <t>push EList</t>
   </si>
   <si>
     <t>pop;push temp;</t>
@@ -6984,11 +6984,11 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -1017,7 +1017,7 @@
     <t>pop;push Funcall</t>
   </si>
   <si>
-    <t>pop;push TypNadef</t>
+    <t>pop;push Typ,Nadef</t>
   </si>
   <si>
     <t>pop;push for,(,E,;,E,;,E,),Block</t>
@@ -1073,12 +1073,12 @@
     <t>Nadef</t>
   </si>
   <si>
-    <t>Na=E
-NaTempdef'
-NaTempdef'(VdList)Stmt</t>
-  </si>
-  <si>
-    <t>pop;ifeqpush =,Na,=,E;ifnepush =,Na,Tempdef'</t>
+    <t>Na=E;
+NaTempdef';
+NaTempdef';(VdList)Stmt</t>
+  </si>
+  <si>
+    <t>pop;ifeqpush =,Na,=,E,semi;ifnepush =,Na,Tempdef',semi</t>
   </si>
   <si>
     <t>Tempdef'</t>
@@ -1088,7 +1088,7 @@
 e</t>
   </si>
   <si>
-    <t>pop;push   (,VdList,),Stmt</t>
+    <t>pop;pop;push (,VdList,),Stmt</t>
   </si>
   <si>
     <t>变量赋值
@@ -1099,7 +1099,7 @@
     <t>Funcall</t>
   </si>
   <si>
-    <t>Na=E
+    <t>Na=E;
 NaTemp'
 NaTemp'(EList)Temp0</t>
   </si>
@@ -2445,7 +2445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2622,12 +2622,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3062,7 +3056,7 @@
       <c r="K1" s="55">
         <v>7</v>
       </c>
-      <c r="L1" s="64">
+      <c r="L1" s="62">
         <v>8</v>
       </c>
       <c r="M1" s="55">
@@ -3083,10 +3077,10 @@
       <c r="R1" s="55">
         <v>14</v>
       </c>
-      <c r="S1" s="66">
+      <c r="S1" s="64">
         <v>15</v>
       </c>
-      <c r="T1" s="67">
+      <c r="T1" s="65">
         <v>16</v>
       </c>
       <c r="U1" s="55">
@@ -3110,7 +3104,7 @@
       <c r="AA1" s="55">
         <v>23</v>
       </c>
-      <c r="AB1" s="67">
+      <c r="AB1" s="65">
         <v>24</v>
       </c>
       <c r="AC1" s="55">
@@ -3125,13 +3119,13 @@
       <c r="AF1" s="55">
         <v>28</v>
       </c>
-      <c r="AG1" s="67">
+      <c r="AG1" s="65">
         <v>29</v>
       </c>
       <c r="AH1" s="55">
         <v>30</v>
       </c>
-      <c r="AI1" s="67">
+      <c r="AI1" s="65">
         <v>31</v>
       </c>
       <c r="AJ1" s="55">
@@ -3146,7 +3140,7 @@
       <c r="AM1" s="55">
         <v>35</v>
       </c>
-      <c r="AN1" s="72"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" s="43" customFormat="1" spans="1:40">
       <c r="A2" s="56"/>
@@ -3176,7 +3170,7 @@
       <c r="K2" s="55">
         <v>39</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="62">
         <v>40</v>
       </c>
       <c r="M2" s="55">
@@ -3197,10 +3191,10 @@
       <c r="R2" s="55">
         <v>46</v>
       </c>
-      <c r="S2" s="66">
+      <c r="S2" s="64">
         <v>47</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="73" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="55">
@@ -3224,7 +3218,7 @@
       <c r="AA2" s="55">
         <v>64</v>
       </c>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="AC2" s="55">
@@ -3239,13 +3233,13 @@
       <c r="AF2" s="55">
         <v>94</v>
       </c>
-      <c r="AG2" s="67">
+      <c r="AG2" s="65">
         <v>95</v>
       </c>
       <c r="AH2" s="55">
         <v>96</v>
       </c>
-      <c r="AI2" s="67" t="s">
+      <c r="AI2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="AJ2" s="55">
@@ -3260,7 +3254,7 @@
       <c r="AM2" s="55">
         <v>126</v>
       </c>
-      <c r="AN2" s="73"/>
+      <c r="AN2" s="71"/>
     </row>
     <row r="3" s="42" customFormat="1" ht="24" spans="1:40">
       <c r="A3" s="52" t="s">
@@ -3279,46 +3273,46 @@
       <c r="F3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="67" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="56" t="s">
@@ -3342,43 +3336,43 @@
       <c r="AA3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="69" t="s">
+      <c r="AB3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="71" t="s">
+      <c r="AC3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="71" t="s">
+      <c r="AD3" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="71" t="s">
+      <c r="AE3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="71" t="s">
+      <c r="AF3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="67" t="s">
+      <c r="AG3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="69" t="s">
+      <c r="AI3" s="67" t="s">
         <v>36</v>
       </c>
       <c r="AJ3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="71" t="s">
+      <c r="AK3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="71" t="s">
+      <c r="AL3" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="71" t="s">
+      <c r="AM3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="74" t="s">
+      <c r="AN3" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3401,7 +3395,7 @@
       <c r="F4" s="55">
         <v>1</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="60">
         <v>3</v>
       </c>
       <c r="H4" s="55" t="s">
@@ -3416,7 +3410,7 @@
       <c r="K4" s="55">
         <v>2</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="62">
         <v>0</v>
       </c>
       <c r="M4" s="55">
@@ -3437,10 +3431,10 @@
       <c r="R4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="64">
         <v>14</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="65">
         <v>3</v>
       </c>
       <c r="U4" s="55">
@@ -3464,7 +3458,7 @@
       <c r="AA4" s="55">
         <v>0</v>
       </c>
-      <c r="AB4" s="67">
+      <c r="AB4" s="65">
         <v>3</v>
       </c>
       <c r="AC4" s="55">
@@ -3479,13 +3473,13 @@
       <c r="AF4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="67">
+      <c r="AG4" s="65">
         <v>3</v>
       </c>
       <c r="AH4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="67">
+      <c r="AI4" s="65">
         <v>3</v>
       </c>
       <c r="AJ4" s="55">
@@ -3500,7 +3494,7 @@
       <c r="AM4" s="55">
         <v>0</v>
       </c>
-      <c r="AN4" s="74" t="s">
+      <c r="AN4" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3520,7 +3514,7 @@
       <c r="E5" s="55">
         <v>1</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="61">
         <v>0</v>
       </c>
       <c r="G5" s="55">
@@ -3538,7 +3532,7 @@
       <c r="K5" s="55">
         <v>1</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="62">
         <v>1</v>
       </c>
       <c r="M5" s="55">
@@ -3559,10 +3553,10 @@
       <c r="R5" s="55">
         <v>1</v>
       </c>
-      <c r="S5" s="66">
+      <c r="S5" s="64">
         <v>1</v>
       </c>
-      <c r="T5" s="67">
+      <c r="T5" s="65">
         <v>1</v>
       </c>
       <c r="U5" s="55">
@@ -3586,7 +3580,7 @@
       <c r="AA5" s="55">
         <v>1</v>
       </c>
-      <c r="AB5" s="67">
+      <c r="AB5" s="65">
         <v>1</v>
       </c>
       <c r="AC5" s="55">
@@ -3601,13 +3595,13 @@
       <c r="AF5" s="55">
         <v>1</v>
       </c>
-      <c r="AG5" s="67">
+      <c r="AG5" s="65">
         <v>1</v>
       </c>
       <c r="AH5" s="55">
         <v>1</v>
       </c>
-      <c r="AI5" s="67">
+      <c r="AI5" s="65">
         <v>1</v>
       </c>
       <c r="AJ5" s="55">
@@ -3622,7 +3616,7 @@
       <c r="AM5" s="55">
         <v>1</v>
       </c>
-      <c r="AN5" s="74" t="s">
+      <c r="AN5" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3660,7 +3654,7 @@
       <c r="K6" s="55">
         <v>0</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="62">
         <v>2</v>
       </c>
       <c r="M6" s="55">
@@ -3681,10 +3675,10 @@
       <c r="R6" s="55">
         <v>2</v>
       </c>
-      <c r="S6" s="66">
+      <c r="S6" s="64">
         <v>2</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="65">
         <v>2</v>
       </c>
       <c r="U6" s="55">
@@ -3708,7 +3702,7 @@
       <c r="AA6" s="55">
         <v>2</v>
       </c>
-      <c r="AB6" s="67">
+      <c r="AB6" s="65">
         <v>2</v>
       </c>
       <c r="AC6" s="55">
@@ -3723,13 +3717,13 @@
       <c r="AF6" s="55">
         <v>2</v>
       </c>
-      <c r="AG6" s="67">
+      <c r="AG6" s="65">
         <v>2</v>
       </c>
       <c r="AH6" s="55">
         <v>2</v>
       </c>
-      <c r="AI6" s="67">
+      <c r="AI6" s="65">
         <v>2</v>
       </c>
       <c r="AJ6" s="55">
@@ -3744,7 +3738,7 @@
       <c r="AM6" s="55">
         <v>2</v>
       </c>
-      <c r="AN6" s="74" t="s">
+      <c r="AN6" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3782,7 +3776,7 @@
       <c r="K7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="62">
         <v>-1</v>
       </c>
       <c r="M7" s="55">
@@ -3803,10 +3797,10 @@
       <c r="R7" s="55">
         <v>3</v>
       </c>
-      <c r="S7" s="66">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="67">
+      <c r="S7" s="64">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="65">
         <v>3</v>
       </c>
       <c r="U7" s="55">
@@ -3830,7 +3824,7 @@
       <c r="AA7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="67">
+      <c r="AB7" s="65">
         <v>3</v>
       </c>
       <c r="AC7" s="55">
@@ -3845,13 +3839,13 @@
       <c r="AF7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="67">
+      <c r="AG7" s="65">
         <v>3</v>
       </c>
       <c r="AH7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI7" s="67">
+      <c r="AI7" s="65">
         <v>3</v>
       </c>
       <c r="AJ7" s="55">
@@ -3866,7 +3860,7 @@
       <c r="AM7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN7" s="74" t="s">
+      <c r="AN7" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3904,7 +3898,7 @@
       <c r="K8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="62">
         <v>-1</v>
       </c>
       <c r="M8" s="55" t="s">
@@ -3925,10 +3919,10 @@
       <c r="R8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="67" t="s">
+      <c r="S8" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="65" t="s">
         <v>43</v>
       </c>
       <c r="U8" s="55" t="s">
@@ -3952,7 +3946,7 @@
       <c r="AA8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB8" s="67">
+      <c r="AB8" s="65">
         <v>-1</v>
       </c>
       <c r="AC8" s="55" t="s">
@@ -3967,13 +3961,13 @@
       <c r="AF8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG8" s="67" t="s">
+      <c r="AG8" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AH8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI8" s="67">
+      <c r="AI8" s="65">
         <v>-1</v>
       </c>
       <c r="AJ8" s="55" t="s">
@@ -3988,7 +3982,7 @@
       <c r="AM8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN8" s="74" t="s">
+      <c r="AN8" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4026,7 +4020,7 @@
       <c r="K9" s="55">
         <v>-1</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="62">
         <v>-1</v>
       </c>
       <c r="M9" s="55" t="s">
@@ -4047,10 +4041,10 @@
       <c r="R9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="67">
+      <c r="S9" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="65">
         <v>-1</v>
       </c>
       <c r="U9" s="55" t="s">
@@ -4074,7 +4068,7 @@
       <c r="AA9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB9" s="67">
+      <c r="AB9" s="65">
         <v>-1</v>
       </c>
       <c r="AC9" s="55" t="s">
@@ -4089,13 +4083,13 @@
       <c r="AF9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG9" s="67">
+      <c r="AG9" s="65">
         <v>-1</v>
       </c>
       <c r="AH9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI9" s="67">
+      <c r="AI9" s="65">
         <v>-1</v>
       </c>
       <c r="AJ9" s="55" t="s">
@@ -4110,7 +4104,7 @@
       <c r="AM9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN9" s="74" t="s">
+      <c r="AN9" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4148,7 +4142,7 @@
       <c r="K10" s="55">
         <v>-1</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="62">
         <v>-1</v>
       </c>
       <c r="M10" s="55">
@@ -4169,10 +4163,10 @@
       <c r="R10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="67">
+      <c r="S10" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="65">
         <v>-1</v>
       </c>
       <c r="U10" s="55" t="s">
@@ -4196,7 +4190,7 @@
       <c r="AA10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" s="67">
+      <c r="AB10" s="65">
         <v>-1</v>
       </c>
       <c r="AC10" s="55" t="s">
@@ -4211,13 +4205,13 @@
       <c r="AF10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG10" s="67">
+      <c r="AG10" s="65">
         <v>-1</v>
       </c>
       <c r="AH10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI10" s="67">
+      <c r="AI10" s="65">
         <v>-1</v>
       </c>
       <c r="AJ10" s="55" t="s">
@@ -4232,12 +4226,12 @@
       <c r="AM10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN10" s="74" t="s">
+      <c r="AN10" s="72" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="75" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="53">
@@ -4270,7 +4264,7 @@
       <c r="K11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="62" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="55">
@@ -4291,10 +4285,10 @@
       <c r="R11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="67" t="s">
+      <c r="S11" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="65" t="s">
         <v>43</v>
       </c>
       <c r="U11" s="55" t="s">
@@ -4318,7 +4312,7 @@
       <c r="AA11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="67" t="s">
+      <c r="AB11" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AC11" s="55" t="s">
@@ -4333,13 +4327,13 @@
       <c r="AF11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG11" s="67" t="s">
+      <c r="AG11" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AH11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI11" s="67" t="s">
+      <c r="AI11" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AJ11" s="55" t="s">
@@ -4354,12 +4348,12 @@
       <c r="AM11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN11" s="74" t="s">
+      <c r="AN11" s="72" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="53">
@@ -4392,7 +4386,7 @@
       <c r="K12" s="55">
         <v>-1</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="62">
         <v>-1</v>
       </c>
       <c r="M12" s="55" t="s">
@@ -4413,10 +4407,10 @@
       <c r="R12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="67">
+      <c r="S12" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="65">
         <v>-1</v>
       </c>
       <c r="U12" s="55" t="s">
@@ -4440,7 +4434,7 @@
       <c r="AA12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB12" s="67">
+      <c r="AB12" s="65">
         <v>-1</v>
       </c>
       <c r="AC12" s="55" t="s">
@@ -4455,13 +4449,13 @@
       <c r="AF12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="67">
+      <c r="AG12" s="65">
         <v>-1</v>
       </c>
       <c r="AH12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI12" s="67">
+      <c r="AI12" s="65">
         <v>-1</v>
       </c>
       <c r="AJ12" s="55" t="s">
@@ -4476,7 +4470,7 @@
       <c r="AM12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN12" s="74" t="s">
+      <c r="AN12" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4514,7 +4508,7 @@
       <c r="K13" s="55">
         <v>-1</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="62">
         <v>-1</v>
       </c>
       <c r="M13" s="55" t="s">
@@ -4535,10 +4529,10 @@
       <c r="R13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="67">
+      <c r="S13" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="65">
         <v>-1</v>
       </c>
       <c r="U13" s="55" t="s">
@@ -4562,7 +4556,7 @@
       <c r="AA13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB13" s="67">
+      <c r="AB13" s="65">
         <v>-1</v>
       </c>
       <c r="AC13" s="55" t="s">
@@ -4577,13 +4571,13 @@
       <c r="AF13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG13" s="67">
+      <c r="AG13" s="65">
         <v>-1</v>
       </c>
       <c r="AH13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI13" s="67">
+      <c r="AI13" s="65">
         <v>-1</v>
       </c>
       <c r="AJ13" s="55" t="s">
@@ -4598,7 +4592,7 @@
       <c r="AM13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN13" s="74" t="s">
+      <c r="AN13" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4636,7 +4630,7 @@
       <c r="K14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="62">
         <v>-1</v>
       </c>
       <c r="M14" s="55">
@@ -4657,10 +4651,10 @@
       <c r="R14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="67">
+      <c r="S14" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="65">
         <v>-1</v>
       </c>
       <c r="U14" s="55" t="s">
@@ -4684,7 +4678,7 @@
       <c r="AA14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB14" s="67">
+      <c r="AB14" s="65">
         <v>-1</v>
       </c>
       <c r="AC14" s="55" t="s">
@@ -4699,13 +4693,13 @@
       <c r="AF14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG14" s="67">
+      <c r="AG14" s="65">
         <v>-1</v>
       </c>
       <c r="AH14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI14" s="67">
+      <c r="AI14" s="65">
         <v>-1</v>
       </c>
       <c r="AJ14" s="55" t="s">
@@ -4720,7 +4714,7 @@
       <c r="AM14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN14" s="74" t="s">
+      <c r="AN14" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4758,7 +4752,7 @@
       <c r="K15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="62">
         <v>-1</v>
       </c>
       <c r="M15" s="55" t="s">
@@ -4779,10 +4773,10 @@
       <c r="R15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="67">
+      <c r="S15" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="65">
         <v>-1</v>
       </c>
       <c r="U15" s="55" t="s">
@@ -4806,7 +4800,7 @@
       <c r="AA15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB15" s="67">
+      <c r="AB15" s="65">
         <v>-1</v>
       </c>
       <c r="AC15" s="55" t="s">
@@ -4821,13 +4815,13 @@
       <c r="AF15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG15" s="67">
+      <c r="AG15" s="65">
         <v>-1</v>
       </c>
       <c r="AH15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI15" s="67">
+      <c r="AI15" s="65">
         <v>-1</v>
       </c>
       <c r="AJ15" s="55" t="s">
@@ -4842,7 +4836,7 @@
       <c r="AM15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN15" s="74" t="s">
+      <c r="AN15" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4880,7 +4874,7 @@
       <c r="K16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="62">
         <v>-1</v>
       </c>
       <c r="M16" s="55">
@@ -4901,10 +4895,10 @@
       <c r="R16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" s="67">
+      <c r="S16" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" s="65">
         <v>-1</v>
       </c>
       <c r="U16" s="55" t="s">
@@ -4928,7 +4922,7 @@
       <c r="AA16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB16" s="67">
+      <c r="AB16" s="65">
         <v>-1</v>
       </c>
       <c r="AC16" s="55" t="s">
@@ -4943,13 +4937,13 @@
       <c r="AF16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG16" s="67">
+      <c r="AG16" s="65">
         <v>-1</v>
       </c>
       <c r="AH16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI16" s="67">
+      <c r="AI16" s="65">
         <v>-1</v>
       </c>
       <c r="AJ16" s="55" t="s">
@@ -4964,7 +4958,7 @@
       <c r="AM16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN16" s="74" t="s">
+      <c r="AN16" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5002,7 +4996,7 @@
       <c r="K17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="62">
         <v>-1</v>
       </c>
       <c r="M17" s="55" t="s">
@@ -5023,10 +5017,10 @@
       <c r="R17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="67">
+      <c r="S17" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="65">
         <v>-1</v>
       </c>
       <c r="U17" s="55" t="s">
@@ -5050,7 +5044,7 @@
       <c r="AA17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB17" s="67">
+      <c r="AB17" s="65">
         <v>-1</v>
       </c>
       <c r="AC17" s="55" t="s">
@@ -5065,13 +5059,13 @@
       <c r="AF17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG17" s="67">
+      <c r="AG17" s="65">
         <v>-1</v>
       </c>
       <c r="AH17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI17" s="67">
+      <c r="AI17" s="65">
         <v>-1</v>
       </c>
       <c r="AJ17" s="55" t="s">
@@ -5086,7 +5080,7 @@
       <c r="AM17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN17" s="74" t="s">
+      <c r="AN17" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5124,7 +5118,7 @@
       <c r="K18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="62" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="55" t="s">
@@ -5145,10 +5139,10 @@
       <c r="R18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S18" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="67">
+      <c r="S18" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="65">
         <v>-1</v>
       </c>
       <c r="U18" s="55" t="s">
@@ -5172,7 +5166,7 @@
       <c r="AA18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB18" s="67">
+      <c r="AB18" s="65">
         <v>-1</v>
       </c>
       <c r="AC18" s="55" t="s">
@@ -5187,13 +5181,13 @@
       <c r="AF18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG18" s="67">
+      <c r="AG18" s="65">
         <v>-1</v>
       </c>
       <c r="AH18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI18" s="67">
+      <c r="AI18" s="65">
         <v>-1</v>
       </c>
       <c r="AJ18" s="55" t="s">
@@ -5208,7 +5202,7 @@
       <c r="AM18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN18" s="74" t="s">
+      <c r="AN18" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5246,7 +5240,7 @@
       <c r="K19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="62">
         <v>-1</v>
       </c>
       <c r="M19" s="55" t="s">
@@ -5267,10 +5261,10 @@
       <c r="R19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="67">
+      <c r="S19" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="65">
         <v>-1</v>
       </c>
       <c r="U19" s="55" t="s">
@@ -5294,7 +5288,7 @@
       <c r="AA19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB19" s="67">
+      <c r="AB19" s="65">
         <v>-1</v>
       </c>
       <c r="AC19" s="55" t="s">
@@ -5309,13 +5303,13 @@
       <c r="AF19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG19" s="67">
+      <c r="AG19" s="65">
         <v>-1</v>
       </c>
       <c r="AH19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI19" s="67">
+      <c r="AI19" s="65">
         <v>-1</v>
       </c>
       <c r="AJ19" s="55" t="s">
@@ -5330,7 +5324,7 @@
       <c r="AM19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN19" s="74" t="s">
+      <c r="AN19" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5368,7 +5362,7 @@
       <c r="K20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="62">
         <v>-1</v>
       </c>
       <c r="M20" s="55" t="s">
@@ -5389,10 +5383,10 @@
       <c r="R20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="67">
+      <c r="S20" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="65">
         <v>-1</v>
       </c>
       <c r="U20" s="55" t="s">
@@ -5416,7 +5410,7 @@
       <c r="AA20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" s="67">
+      <c r="AB20" s="65">
         <v>-1</v>
       </c>
       <c r="AC20" s="55" t="s">
@@ -5431,13 +5425,13 @@
       <c r="AF20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG20" s="67">
+      <c r="AG20" s="65">
         <v>-1</v>
       </c>
       <c r="AH20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI20" s="67">
+      <c r="AI20" s="65">
         <v>-1</v>
       </c>
       <c r="AJ20" s="55" t="s">
@@ -5452,7 +5446,7 @@
       <c r="AM20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN20" s="74" t="s">
+      <c r="AN20" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5490,7 +5484,7 @@
       <c r="K21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="62">
         <v>-1</v>
       </c>
       <c r="M21" s="55" t="s">
@@ -5511,10 +5505,10 @@
       <c r="R21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T21" s="67">
+      <c r="S21" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="65">
         <v>-1</v>
       </c>
       <c r="U21" s="55" t="s">
@@ -5538,7 +5532,7 @@
       <c r="AA21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB21" s="67">
+      <c r="AB21" s="65">
         <v>-1</v>
       </c>
       <c r="AC21" s="55" t="s">
@@ -5553,13 +5547,13 @@
       <c r="AF21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG21" s="67">
+      <c r="AG21" s="65">
         <v>-1</v>
       </c>
       <c r="AH21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI21" s="67">
+      <c r="AI21" s="65">
         <v>-1</v>
       </c>
       <c r="AJ21" s="55" t="s">
@@ -5574,7 +5568,7 @@
       <c r="AM21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN21" s="74" t="s">
+      <c r="AN21" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5612,7 +5606,7 @@
       <c r="K22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="62">
         <v>-1</v>
       </c>
       <c r="M22" s="55" t="s">
@@ -5633,10 +5627,10 @@
       <c r="R22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T22" s="67">
+      <c r="S22" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" s="65">
         <v>-1</v>
       </c>
       <c r="U22" s="55" t="s">
@@ -5660,7 +5654,7 @@
       <c r="AA22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="67">
+      <c r="AB22" s="65">
         <v>-1</v>
       </c>
       <c r="AC22" s="55" t="s">
@@ -5675,13 +5669,13 @@
       <c r="AF22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG22" s="67">
+      <c r="AG22" s="65">
         <v>-1</v>
       </c>
       <c r="AH22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI22" s="67">
+      <c r="AI22" s="65">
         <v>-1</v>
       </c>
       <c r="AJ22" s="55" t="s">
@@ -5696,7 +5690,7 @@
       <c r="AM22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN22" s="74" t="s">
+      <c r="AN22" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5734,7 +5728,7 @@
       <c r="K23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="64">
+      <c r="L23" s="62">
         <v>-1</v>
       </c>
       <c r="M23" s="55" t="s">
@@ -5755,10 +5749,10 @@
       <c r="R23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T23" s="67">
+      <c r="S23" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="65">
         <v>-1</v>
       </c>
       <c r="U23" s="55" t="s">
@@ -5782,7 +5776,7 @@
       <c r="AA23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB23" s="67">
+      <c r="AB23" s="65">
         <v>-1</v>
       </c>
       <c r="AC23" s="55" t="s">
@@ -5797,13 +5791,13 @@
       <c r="AF23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG23" s="67">
+      <c r="AG23" s="65">
         <v>-1</v>
       </c>
       <c r="AH23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI23" s="67">
+      <c r="AI23" s="65">
         <v>-1</v>
       </c>
       <c r="AJ23" s="55" t="s">
@@ -5818,7 +5812,7 @@
       <c r="AM23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="74" t="s">
+      <c r="AN23" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5856,7 +5850,7 @@
       <c r="K24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="62">
         <v>-1</v>
       </c>
       <c r="M24" s="55" t="s">
@@ -5877,10 +5871,10 @@
       <c r="R24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="67">
+      <c r="S24" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="65">
         <v>-1</v>
       </c>
       <c r="U24" s="55" t="s">
@@ -5904,7 +5898,7 @@
       <c r="AA24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB24" s="67">
+      <c r="AB24" s="65">
         <v>-1</v>
       </c>
       <c r="AC24" s="55" t="s">
@@ -5919,13 +5913,13 @@
       <c r="AF24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG24" s="67">
+      <c r="AG24" s="65">
         <v>-1</v>
       </c>
       <c r="AH24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI24" s="67">
+      <c r="AI24" s="65">
         <v>-1</v>
       </c>
       <c r="AJ24" s="55" t="s">
@@ -5940,7 +5934,7 @@
       <c r="AM24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN24" s="74" t="s">
+      <c r="AN24" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5978,7 +5972,7 @@
       <c r="K25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="62">
         <v>-1</v>
       </c>
       <c r="M25" s="55" t="s">
@@ -5999,10 +5993,10 @@
       <c r="R25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S25" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" s="67">
+      <c r="S25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="65">
         <v>-1</v>
       </c>
       <c r="U25" s="55" t="s">
@@ -6026,7 +6020,7 @@
       <c r="AA25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB25" s="67">
+      <c r="AB25" s="65">
         <v>-1</v>
       </c>
       <c r="AC25" s="55" t="s">
@@ -6041,13 +6035,13 @@
       <c r="AF25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG25" s="67">
+      <c r="AG25" s="65">
         <v>-1</v>
       </c>
       <c r="AH25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI25" s="67">
+      <c r="AI25" s="65">
         <v>-1</v>
       </c>
       <c r="AJ25" s="55" t="s">
@@ -6062,7 +6056,7 @@
       <c r="AM25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN25" s="74" t="s">
+      <c r="AN25" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6100,7 +6094,7 @@
       <c r="K26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="62">
         <v>-1</v>
       </c>
       <c r="M26" s="55" t="s">
@@ -6121,10 +6115,10 @@
       <c r="R26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="67">
+      <c r="S26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="65">
         <v>-1</v>
       </c>
       <c r="U26" s="55" t="s">
@@ -6148,7 +6142,7 @@
       <c r="AA26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB26" s="67">
+      <c r="AB26" s="65">
         <v>-1</v>
       </c>
       <c r="AC26" s="55" t="s">
@@ -6163,13 +6157,13 @@
       <c r="AF26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG26" s="67">
+      <c r="AG26" s="65">
         <v>-1</v>
       </c>
       <c r="AH26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI26" s="67">
+      <c r="AI26" s="65">
         <v>-1</v>
       </c>
       <c r="AJ26" s="55" t="s">
@@ -6184,7 +6178,7 @@
       <c r="AM26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN26" s="74" t="s">
+      <c r="AN26" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6222,7 +6216,7 @@
       <c r="K27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="64">
+      <c r="L27" s="62">
         <v>-1</v>
       </c>
       <c r="M27" s="55" t="s">
@@ -6243,10 +6237,10 @@
       <c r="R27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S27" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="67">
+      <c r="S27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" s="65">
         <v>-1</v>
       </c>
       <c r="U27" s="55" t="s">
@@ -6270,7 +6264,7 @@
       <c r="AA27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB27" s="67">
+      <c r="AB27" s="65">
         <v>-1</v>
       </c>
       <c r="AC27" s="55" t="s">
@@ -6285,13 +6279,13 @@
       <c r="AF27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG27" s="67">
+      <c r="AG27" s="65">
         <v>-1</v>
       </c>
       <c r="AH27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI27" s="67">
+      <c r="AI27" s="65">
         <v>-1</v>
       </c>
       <c r="AJ27" s="55" t="s">
@@ -6306,7 +6300,7 @@
       <c r="AM27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN27" s="74" t="s">
+      <c r="AN27" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6344,7 +6338,7 @@
       <c r="K28" s="55">
         <v>-1</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="62">
         <v>-1</v>
       </c>
       <c r="M28" s="55" t="s">
@@ -6365,10 +6359,10 @@
       <c r="R28" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S28" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T28" s="67">
+      <c r="S28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="65">
         <v>-1</v>
       </c>
       <c r="U28" s="55" t="s">
@@ -6392,7 +6386,7 @@
       <c r="AA28" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB28" s="67">
+      <c r="AB28" s="65">
         <v>-1</v>
       </c>
       <c r="AC28" s="55" t="s">
@@ -6407,13 +6401,13 @@
       <c r="AF28" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG28" s="67">
+      <c r="AG28" s="65">
         <v>-1</v>
       </c>
       <c r="AH28" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI28" s="67">
+      <c r="AI28" s="65">
         <v>-1</v>
       </c>
       <c r="AJ28" s="55">
@@ -6428,7 +6422,7 @@
       <c r="AM28" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN28" s="74" t="s">
+      <c r="AN28" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6466,7 +6460,7 @@
       <c r="K29" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="64">
+      <c r="L29" s="62">
         <v>-1</v>
       </c>
       <c r="M29" s="55" t="s">
@@ -6487,10 +6481,10 @@
       <c r="R29" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S29" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="67">
+      <c r="S29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="65">
         <v>-1</v>
       </c>
       <c r="U29" s="55" t="s">
@@ -6514,7 +6508,7 @@
       <c r="AA29" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" s="67">
+      <c r="AB29" s="65">
         <v>-1</v>
       </c>
       <c r="AC29" s="55" t="s">
@@ -6529,13 +6523,13 @@
       <c r="AF29" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG29" s="67">
+      <c r="AG29" s="65">
         <v>-1</v>
       </c>
       <c r="AH29" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI29" s="67">
+      <c r="AI29" s="65">
         <v>-1</v>
       </c>
       <c r="AJ29" s="55" t="s">
@@ -6550,7 +6544,7 @@
       <c r="AM29" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN29" s="74" t="s">
+      <c r="AN29" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6588,7 +6582,7 @@
       <c r="K30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="62">
         <v>-1</v>
       </c>
       <c r="M30" s="55" t="s">
@@ -6609,10 +6603,10 @@
       <c r="R30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S30" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="67">
+      <c r="S30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="65">
         <v>-1</v>
       </c>
       <c r="U30" s="55" t="s">
@@ -6636,7 +6630,7 @@
       <c r="AA30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB30" s="67">
+      <c r="AB30" s="65">
         <v>-1</v>
       </c>
       <c r="AC30" s="55" t="s">
@@ -6651,13 +6645,13 @@
       <c r="AF30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG30" s="67">
+      <c r="AG30" s="65">
         <v>-1</v>
       </c>
       <c r="AH30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI30" s="67">
+      <c r="AI30" s="65">
         <v>-1</v>
       </c>
       <c r="AJ30" s="55" t="s">
@@ -6672,7 +6666,7 @@
       <c r="AM30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN30" s="74" t="s">
+      <c r="AN30" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6710,7 +6704,7 @@
       <c r="K31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="64" t="s">
+      <c r="L31" s="62" t="s">
         <v>43</v>
       </c>
       <c r="M31" s="55" t="s">
@@ -6731,10 +6725,10 @@
       <c r="R31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S31" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T31" s="67">
+      <c r="S31" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="65">
         <v>-1</v>
       </c>
       <c r="U31" s="55" t="s">
@@ -6758,7 +6752,7 @@
       <c r="AA31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" s="67">
+      <c r="AB31" s="65">
         <v>-1</v>
       </c>
       <c r="AC31" s="55" t="s">
@@ -6773,13 +6767,13 @@
       <c r="AF31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG31" s="67">
+      <c r="AG31" s="65">
         <v>-1</v>
       </c>
       <c r="AH31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI31" s="67">
+      <c r="AI31" s="65">
         <v>-1</v>
       </c>
       <c r="AJ31" s="55" t="s">
@@ -6794,7 +6788,7 @@
       <c r="AM31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN31" s="74" t="s">
+      <c r="AN31" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6832,7 +6826,7 @@
       <c r="K32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="64">
+      <c r="L32" s="62">
         <v>-1</v>
       </c>
       <c r="M32" s="55" t="s">
@@ -6853,10 +6847,10 @@
       <c r="R32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S32" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="67">
+      <c r="S32" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="65">
         <v>-1</v>
       </c>
       <c r="U32" s="55" t="s">
@@ -6880,7 +6874,7 @@
       <c r="AA32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB32" s="67">
+      <c r="AB32" s="65">
         <v>-1</v>
       </c>
       <c r="AC32" s="55" t="s">
@@ -6895,13 +6889,13 @@
       <c r="AF32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG32" s="67">
+      <c r="AG32" s="65">
         <v>-1</v>
       </c>
       <c r="AH32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI32" s="67">
+      <c r="AI32" s="65">
         <v>-1</v>
       </c>
       <c r="AJ32" s="55" t="s">
@@ -6916,7 +6910,7 @@
       <c r="AM32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN32" s="74" t="s">
+      <c r="AN32" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6954,7 +6948,7 @@
       <c r="K33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="64">
+      <c r="L33" s="62">
         <v>-1</v>
       </c>
       <c r="M33" s="55" t="s">
@@ -6975,10 +6969,10 @@
       <c r="R33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S33" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T33" s="67">
+      <c r="S33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="65">
         <v>-1</v>
       </c>
       <c r="U33" s="55" t="s">
@@ -7002,7 +6996,7 @@
       <c r="AA33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB33" s="67">
+      <c r="AB33" s="65">
         <v>-1</v>
       </c>
       <c r="AC33" s="55" t="s">
@@ -7017,13 +7011,13 @@
       <c r="AF33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG33" s="67">
+      <c r="AG33" s="65">
         <v>-1</v>
       </c>
       <c r="AH33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI33" s="67">
+      <c r="AI33" s="65">
         <v>-1</v>
       </c>
       <c r="AJ33" s="55" t="s">
@@ -7038,7 +7032,7 @@
       <c r="AM33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN33" s="74" t="s">
+      <c r="AN33" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7076,7 +7070,7 @@
       <c r="K34" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="64">
+      <c r="L34" s="62">
         <v>-1</v>
       </c>
       <c r="M34" s="55" t="s">
@@ -7097,10 +7091,10 @@
       <c r="R34" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S34" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T34" s="67">
+      <c r="S34" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="65">
         <v>-1</v>
       </c>
       <c r="U34" s="55" t="s">
@@ -7124,7 +7118,7 @@
       <c r="AA34" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB34" s="67">
+      <c r="AB34" s="65">
         <v>-1</v>
       </c>
       <c r="AC34" s="55" t="s">
@@ -7139,13 +7133,13 @@
       <c r="AF34" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG34" s="67">
+      <c r="AG34" s="65">
         <v>-1</v>
       </c>
       <c r="AH34" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI34" s="67">
+      <c r="AI34" s="65">
         <v>-1</v>
       </c>
       <c r="AJ34" s="55" t="s">
@@ -7160,7 +7154,7 @@
       <c r="AM34" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN34" s="74" t="s">
+      <c r="AN34" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7198,7 +7192,7 @@
       <c r="K35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="62" t="s">
         <v>43</v>
       </c>
       <c r="M35" s="55" t="s">
@@ -7219,10 +7213,10 @@
       <c r="R35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="67">
+      <c r="S35" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="65">
         <v>-1</v>
       </c>
       <c r="U35" s="55" t="s">
@@ -7246,7 +7240,7 @@
       <c r="AA35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB35" s="67">
+      <c r="AB35" s="65">
         <v>-1</v>
       </c>
       <c r="AC35" s="55" t="s">
@@ -7261,13 +7255,13 @@
       <c r="AF35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG35" s="67">
+      <c r="AG35" s="65">
         <v>-1</v>
       </c>
       <c r="AH35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI35" s="67">
+      <c r="AI35" s="65">
         <v>-1</v>
       </c>
       <c r="AJ35" s="55" t="s">
@@ -7282,7 +7276,7 @@
       <c r="AM35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN35" s="74" t="s">
+      <c r="AN35" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7320,7 +7314,7 @@
       <c r="K36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="64">
+      <c r="L36" s="62">
         <v>-1</v>
       </c>
       <c r="M36" s="55" t="s">
@@ -7341,10 +7335,10 @@
       <c r="R36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="67">
+      <c r="S36" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" s="65">
         <v>-1</v>
       </c>
       <c r="U36" s="55" t="s">
@@ -7368,7 +7362,7 @@
       <c r="AA36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB36" s="67">
+      <c r="AB36" s="65">
         <v>-1</v>
       </c>
       <c r="AC36" s="55" t="s">
@@ -7383,13 +7377,13 @@
       <c r="AF36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG36" s="67">
+      <c r="AG36" s="65">
         <v>-1</v>
       </c>
       <c r="AH36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI36" s="67">
+      <c r="AI36" s="65">
         <v>-1</v>
       </c>
       <c r="AJ36" s="55" t="s">
@@ -7404,7 +7398,7 @@
       <c r="AM36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN36" s="74" t="s">
+      <c r="AN36" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7442,7 +7436,7 @@
       <c r="K37" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="64">
+      <c r="L37" s="62">
         <v>-1</v>
       </c>
       <c r="M37" s="55" t="s">
@@ -7463,10 +7457,10 @@
       <c r="R37" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S37" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37" s="67">
+      <c r="S37" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="65">
         <v>-1</v>
       </c>
       <c r="U37" s="55" t="s">
@@ -7490,7 +7484,7 @@
       <c r="AA37" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB37" s="67">
+      <c r="AB37" s="65">
         <v>-1</v>
       </c>
       <c r="AC37" s="55" t="s">
@@ -7505,13 +7499,13 @@
       <c r="AF37" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG37" s="67">
+      <c r="AG37" s="65">
         <v>-1</v>
       </c>
       <c r="AH37" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI37" s="67">
+      <c r="AI37" s="65">
         <v>-1</v>
       </c>
       <c r="AJ37" s="55" t="s">
@@ -7526,15 +7520,15 @@
       <c r="AM37" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN37" s="74" t="s">
+      <c r="AN37" s="72" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="53">
         <v>34</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -7612,7 +7606,7 @@
       <c r="AA38" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AB38" s="70">
+      <c r="AB38" s="68">
         <v>-1</v>
       </c>
       <c r="AC38" s="55" t="s">
@@ -7627,13 +7621,13 @@
       <c r="AF38" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AG38" s="70">
+      <c r="AG38" s="68">
         <v>-1</v>
       </c>
       <c r="AH38" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AI38" s="70">
+      <c r="AI38" s="68">
         <v>-1</v>
       </c>
       <c r="AJ38" s="55" t="s">
@@ -7648,7 +7642,7 @@
       <c r="AM38" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AN38" s="74" t="s">
+      <c r="AN38" s="72" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7665,11 +7659,11 @@
   <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -7756,7 +7750,7 @@
       <c r="V1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="76" t="s">
         <v>59</v>
       </c>
       <c r="X1" s="21" t="s">
@@ -8517,7 +8511,7 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
     </row>
-    <row r="9" ht="53" spans="1:36">
+    <row r="9" ht="71" spans="1:36">
       <c r="A9" s="36"/>
       <c r="B9" s="34" t="s">
         <v>94</v>
@@ -10413,7 +10407,7 @@
       <c r="C27" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="77" t="s">
         <v>180</v>
       </c>
       <c r="E27" s="41" t="s">
@@ -10517,7 +10511,7 @@
       <c r="C28" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="77" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="41" t="s">
@@ -11245,7 +11239,7 @@
       <c r="C35" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="77" t="s">
         <v>210</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -11525,7 +11519,7 @@
       <c r="R1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="76" t="s">
         <v>59</v>
       </c>
       <c r="T1" s="21" t="s">
@@ -12434,7 +12428,7 @@
       <c r="C12" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="77" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -12520,7 +12514,7 @@
       <c r="C13" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="77" t="s">
         <v>184</v>
       </c>
       <c r="E13" s="20" t="s">

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -744,7 +744,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="249">
   <si>
     <t>48-57</t>
   </si>
@@ -7656,14 +7656,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -7685,11 +7685,11 @@
     <col min="23" max="23" width="14.1057692307692" style="1" customWidth="1"/>
     <col min="24" max="28" width="12.6923076923077" style="1" customWidth="1"/>
     <col min="29" max="33" width="13.9326923076923" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.23076923076923" style="33"/>
-    <col min="35" max="16384" width="9.23076923076923" style="1"/>
+    <col min="34" max="35" width="9.23076923076923" style="33"/>
+    <col min="36" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="4"/>
       <c r="B1" s="6"/>
       <c r="C1" s="5" t="s">
@@ -7783,11 +7783,14 @@
       <c r="AG1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="5"/>
+      <c r="AH1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="41"/>
       <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
     </row>
-    <row r="2" ht="36" spans="1:36">
+    <row r="2" ht="36" spans="1:37">
       <c r="A2" s="4"/>
       <c r="B2" s="6"/>
       <c r="C2" s="10" t="s">
@@ -7883,13 +7886,16 @@
       <c r="AG2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
     </row>
-    <row r="3" ht="36" spans="1:36">
+    <row r="3" ht="36" spans="1:37">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -7985,13 +7991,16 @@
       <c r="AG3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="41" t="s">
+      <c r="AH3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
     </row>
-    <row r="4" ht="141" spans="1:36">
+    <row r="4" ht="141" spans="1:37">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="10" t="s">
@@ -8087,13 +8096,16 @@
       <c r="AG4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="41" t="s">
+      <c r="AH4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
     </row>
-    <row r="5" ht="36" spans="1:36">
+    <row r="5" ht="36" spans="1:37">
       <c r="A5" s="4"/>
       <c r="B5" s="34" t="s">
         <v>94</v>
@@ -8191,13 +8203,16 @@
       <c r="AG5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH5" s="41" t="s">
+      <c r="AH5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
     </row>
-    <row r="6" ht="36" spans="1:36">
+    <row r="6" ht="36" spans="1:37">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
         <v>94</v>
@@ -8295,13 +8310,16 @@
       <c r="AG6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="41" t="s">
+      <c r="AH6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
     </row>
-    <row r="7" ht="36" spans="1:36">
+    <row r="7" ht="36" spans="1:37">
       <c r="A7" s="4"/>
       <c r="B7" s="34" t="s">
         <v>94</v>
@@ -8399,13 +8417,16 @@
       <c r="AG7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH7" s="41" t="s">
+      <c r="AH7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
     </row>
-    <row r="8" ht="88" spans="1:36">
+    <row r="8" ht="88" spans="1:37">
       <c r="A8" s="35" t="s">
         <v>104</v>
       </c>
@@ -8505,13 +8526,16 @@
       <c r="AG8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH8" s="41" t="s">
+      <c r="AH8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI8" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
     </row>
-    <row r="9" ht="71" spans="1:36">
+    <row r="9" ht="71" spans="1:37">
       <c r="A9" s="36"/>
       <c r="B9" s="34" t="s">
         <v>94</v>
@@ -8609,13 +8633,16 @@
       <c r="AG9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH9" s="41" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI9" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
     </row>
-    <row r="10" ht="71" spans="1:36">
+    <row r="10" ht="71" spans="1:37">
       <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
@@ -8715,13 +8742,16 @@
       <c r="AG10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH10" s="41" t="s">
+      <c r="AH10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
     </row>
-    <row r="11" ht="53" spans="1:36">
+    <row r="11" ht="53" spans="1:37">
       <c r="A11" s="36"/>
       <c r="B11" s="34" t="s">
         <v>94</v>
@@ -8819,13 +8849,16 @@
       <c r="AG11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH11" s="41" t="s">
+      <c r="AH11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI11" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
     </row>
-    <row r="12" ht="36" spans="1:36">
+    <row r="12" ht="36" spans="1:37">
       <c r="A12" s="36"/>
       <c r="B12" s="34" t="s">
         <v>94</v>
@@ -8923,13 +8956,16 @@
       <c r="AG12" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AH12" s="41" t="s">
+      <c r="AH12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
     </row>
-    <row r="13" ht="36" spans="1:36">
+    <row r="13" ht="36" spans="1:37">
       <c r="A13" s="36" t="s">
         <v>122</v>
       </c>
@@ -9029,13 +9065,16 @@
       <c r="AG13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH13" s="41" t="s">
+      <c r="AH13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI13" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
     </row>
-    <row r="14" ht="36" spans="1:36">
+    <row r="14" ht="36" spans="1:37">
       <c r="A14" s="38"/>
       <c r="B14" s="34" t="s">
         <v>94</v>
@@ -9133,13 +9172,16 @@
       <c r="AG14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH14" s="41" t="s">
+      <c r="AH14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI14" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
     </row>
-    <row r="15" ht="36" spans="1:36">
+    <row r="15" ht="36" spans="1:37">
       <c r="A15" s="39"/>
       <c r="B15" s="34" t="s">
         <v>94</v>
@@ -9237,13 +9279,16 @@
       <c r="AG15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH15" s="41" t="s">
+      <c r="AH15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI15" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
     </row>
-    <row r="16" ht="36" spans="1:36">
+    <row r="16" ht="36" spans="1:37">
       <c r="A16" s="36" t="s">
         <v>132</v>
       </c>
@@ -9343,13 +9388,16 @@
       <c r="AG16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH16" s="41" t="s">
+      <c r="AH16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI16" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
     </row>
-    <row r="17" ht="36" spans="1:36">
+    <row r="17" ht="36" spans="1:37">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -9449,13 +9497,16 @@
       <c r="AG17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH17" s="41" t="s">
+      <c r="AH17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI17" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
     </row>
-    <row r="18" ht="43" customHeight="1" spans="1:36">
+    <row r="18" ht="43" customHeight="1" spans="1:37">
       <c r="A18" s="7"/>
       <c r="B18" s="34" t="s">
         <v>94</v>
@@ -9553,13 +9604,16 @@
       <c r="AG18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH18" s="41" t="s">
+      <c r="AH18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI18" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
     </row>
-    <row r="19" ht="43" customHeight="1" spans="1:36">
+    <row r="19" ht="43" customHeight="1" spans="1:37">
       <c r="A19" s="7"/>
       <c r="B19" s="34" t="s">
         <v>94</v>
@@ -9657,13 +9711,16 @@
       <c r="AG19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH19" s="41" t="s">
+      <c r="AH19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI19" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
     </row>
-    <row r="20" ht="43" customHeight="1" spans="1:36">
+    <row r="20" ht="43" customHeight="1" spans="1:37">
       <c r="A20" s="5" t="s">
         <v>145</v>
       </c>
@@ -9763,13 +9820,16 @@
       <c r="AG20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH20" s="41" t="s">
+      <c r="AH20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI20" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
     </row>
-    <row r="21" ht="36" spans="1:36">
+    <row r="21" ht="36" spans="1:37">
       <c r="A21" s="5" t="s">
         <v>149</v>
       </c>
@@ -9869,13 +9929,16 @@
       <c r="AG21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH21" s="41" t="s">
+      <c r="AH21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI21" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
     </row>
-    <row r="22" ht="36" spans="1:36">
+    <row r="22" ht="36" spans="1:37">
       <c r="A22" s="5"/>
       <c r="B22" s="34" t="s">
         <v>94</v>
@@ -9973,13 +10036,16 @@
       <c r="AG22" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH22" s="41" t="s">
+      <c r="AH22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
     </row>
-    <row r="23" ht="53" spans="1:36">
+    <row r="23" ht="53" spans="1:37">
       <c r="A23" s="5"/>
       <c r="B23" s="34" t="s">
         <v>94</v>
@@ -10077,13 +10143,16 @@
       <c r="AG23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH23" s="41" t="s">
+      <c r="AH23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI23" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
     </row>
-    <row r="24" ht="36" spans="1:36">
+    <row r="24" ht="36" spans="1:37">
       <c r="A24" s="5" t="s">
         <v>162</v>
       </c>
@@ -10183,13 +10252,16 @@
       <c r="AG24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH24" s="41" t="s">
+      <c r="AH24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI24" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
     </row>
-    <row r="25" ht="106" spans="1:36">
+    <row r="25" ht="106" spans="1:37">
       <c r="A25" s="5"/>
       <c r="B25" s="34" t="s">
         <v>94</v>
@@ -10287,13 +10359,16 @@
       <c r="AG25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH25" s="41" t="s">
+      <c r="AH25" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI25" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
     </row>
-    <row r="26" ht="53" spans="1:36">
+    <row r="26" ht="53" spans="1:37">
       <c r="A26" s="5"/>
       <c r="B26" s="34" t="s">
         <v>94</v>
@@ -10391,13 +10466,16 @@
       <c r="AG26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH26" s="41" t="s">
+      <c r="AH26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI26" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
     </row>
-    <row r="27" ht="36" spans="1:36">
+    <row r="27" ht="36" spans="1:37">
       <c r="A27" s="5" t="s">
         <v>178</v>
       </c>
@@ -10497,13 +10575,16 @@
       <c r="AG27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH27" s="41" t="s">
+      <c r="AH27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI27" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
     </row>
-    <row r="28" ht="36" spans="1:36">
+    <row r="28" ht="36" spans="1:37">
       <c r="A28" s="5"/>
       <c r="B28" s="34" t="s">
         <v>94</v>
@@ -10601,13 +10682,16 @@
       <c r="AG28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH28" s="41" t="s">
+      <c r="AH28" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI28" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
     </row>
-    <row r="29" ht="53" spans="1:36">
+    <row r="29" ht="53" spans="1:37">
       <c r="A29" s="5"/>
       <c r="B29" s="34" t="s">
         <v>94</v>
@@ -10705,13 +10789,16 @@
       <c r="AG29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH29" s="41" t="s">
+      <c r="AH29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI29" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
     </row>
-    <row r="30" ht="53" spans="1:36">
+    <row r="30" ht="53" spans="1:37">
       <c r="A30" s="5"/>
       <c r="B30" s="34" t="s">
         <v>94</v>
@@ -10809,13 +10896,16 @@
       <c r="AG30" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH30" s="41" t="s">
+      <c r="AH30" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI30" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
     </row>
-    <row r="31" ht="53" spans="1:36">
+    <row r="31" ht="53" spans="1:37">
       <c r="A31" s="5"/>
       <c r="B31" s="34" t="s">
         <v>94</v>
@@ -10913,13 +11003,16 @@
       <c r="AG31" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH31" s="41" t="s">
+      <c r="AH31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI31" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
     </row>
-    <row r="32" ht="53" spans="1:36">
+    <row r="32" ht="53" spans="1:37">
       <c r="A32" s="5"/>
       <c r="B32" s="34" t="s">
         <v>94</v>
@@ -11017,13 +11110,16 @@
       <c r="AG32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AH32" s="41" t="s">
+      <c r="AH32" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI32" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
     </row>
-    <row r="33" ht="53" spans="1:36">
+    <row r="33" ht="53" spans="1:37">
       <c r="A33" s="5"/>
       <c r="B33" s="34" t="s">
         <v>94</v>
@@ -11121,13 +11217,16 @@
       <c r="AG33" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="AH33" s="41" t="s">
+      <c r="AH33" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
     </row>
-    <row r="34" ht="124" spans="1:36">
+    <row r="34" ht="124" spans="1:37">
       <c r="A34" s="5"/>
       <c r="B34" s="34" t="s">
         <v>94</v>
@@ -11225,13 +11324,16 @@
       <c r="AG34" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AH34" s="41" t="s">
+      <c r="AH34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI34" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
     </row>
-    <row r="35" ht="88" spans="1:36">
+    <row r="35" ht="88" spans="1:37">
       <c r="A35" s="5"/>
       <c r="B35" s="34" t="s">
         <v>94</v>
@@ -11329,11 +11431,14 @@
       <c r="AG35" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AH35" s="41" t="s">
+      <c r="AH35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI35" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
     </row>
     <row r="36" spans="6:33">
       <c r="F36" s="2"/>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12140" activeTab="1"/>
+    <workbookView windowWidth="27660" windowHeight="12160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字符状态转换表" sheetId="1" r:id="rId1"/>
@@ -1017,28 +1017,28 @@
 E</t>
   </si>
   <si>
-    <t>pop;push E</t>
-  </si>
-  <si>
-    <t>pop;push Funcall</t>
-  </si>
-  <si>
-    <t>pop;push Typ,Nadef</t>
-  </si>
-  <si>
-    <t>pop;push for,(,ForstList,semi,E,semi,ForetList,),Block</t>
-  </si>
-  <si>
-    <t>pop;push while,(,E,),Block</t>
-  </si>
-  <si>
-    <t>pop;push do,Block,while,(,E,),semi</t>
-  </si>
-  <si>
-    <t>pop;push If,Else'</t>
-  </si>
-  <si>
-    <t>pop;push Block</t>
+    <t>pop;push E;SegTypeE</t>
+  </si>
+  <si>
+    <t>pop;push Funcall;SegTypeCall</t>
+  </si>
+  <si>
+    <t>pop;push Typ,Nadef;SegTypeDef</t>
+  </si>
+  <si>
+    <t>pop;push for,(,ForstList,semi,E,semi,ForetList,),Block;SegTypeFor</t>
+  </si>
+  <si>
+    <t>pop;push while,(,E,),Block;SegTypeWhile</t>
+  </si>
+  <si>
+    <t>pop;push do,Block,while,(,E,),semi;SegTypeDo</t>
+  </si>
+  <si>
+    <t>pop;push If,Else';SegTypeElse</t>
+  </si>
+  <si>
+    <t>pop;push Block;SegTypeBlock</t>
   </si>
   <si>
     <t>for开始表达式</t>
@@ -1161,7 +1161,7 @@
 e</t>
   </si>
   <si>
-    <t>pop;pop;push (,VdList,),Stmt</t>
+    <t>pop;pop;push (,VdList,),Stmt;SegTypeFunDef</t>
   </si>
   <si>
     <t>变量赋值
@@ -1186,7 +1186,7 @@
 e</t>
   </si>
   <si>
-    <t>pop;pop;push (,EList,),semi</t>
+    <t>pop;pop;push (,EList,),semi;SegTypeFunCall</t>
   </si>
   <si>
     <t>变量声明列表</t>
@@ -7724,11 +7724,11 @@
   <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -9240,7 +9240,7 @@
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
     </row>
-    <row r="15" ht="71" spans="1:37">
+    <row r="15" ht="88" spans="1:37">
       <c r="A15" s="36"/>
       <c r="B15" s="34" t="s">
         <v>77</v>
@@ -9456,7 +9456,7 @@
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
     </row>
-    <row r="17" ht="71" spans="1:37">
+    <row r="17" ht="88" spans="1:37">
       <c r="A17" s="36"/>
       <c r="B17" s="34" t="s">
         <v>77</v>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12160" activeTab="1"/>
+    <workbookView windowWidth="27660" windowHeight="12140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字符状态转换表" sheetId="1" r:id="rId1"/>
@@ -7724,11 +7724,11 @@
   <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -7856,11 +7856,11 @@
   <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -7868,7 +7868,7 @@
     <col min="1" max="1" width="15.8557692307692" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.3461538461538" style="8" customWidth="1"/>
     <col min="3" max="3" width="15.3846153846154" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.3846153846154" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.4326923076923" style="9" customWidth="1"/>
     <col min="5" max="5" width="5.92307692307692" style="40" customWidth="1"/>
     <col min="6" max="6" width="12.6923076923077" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.1442307692308" style="8" customWidth="1"/>

--- a/src/main/java/com/example/compile/data/状态图.xlsx
+++ b/src/main/java/com/example/compile/data/状态图.xlsx
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="303">
   <si>
     <t>48-57</t>
   </si>
@@ -1489,7 +1489,10 @@
 %,F,Ft’</t>
   </si>
   <si>
-    <t>pop;push 0,+,Ft',Fe'</t>
+    <t>pop;push 0,+,Cf,Ct'</t>
+  </si>
+  <si>
+    <t>pop;push 0,-,Ft',Fe'</t>
   </si>
   <si>
     <t>加减乘除 算式表达式 Formula expression
@@ -7856,11 +7859,11 @@
   <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="T39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4"/>
@@ -12135,10 +12138,10 @@
         <v>84</v>
       </c>
       <c r="Y40" s="37" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA40" s="38" t="s">
         <v>212</v>
@@ -12305,14 +12308,14 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="28" t="s">
@@ -12322,10 +12325,10 @@
         <v>69</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>13</v>
@@ -12394,31 +12397,31 @@
         <v>154</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>155</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>84</v>
@@ -12430,7 +12433,7 @@
         <v>84</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O2" s="30" t="s">
         <v>84</v>
@@ -12454,7 +12457,7 @@
         <v>84</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W2" s="30" t="s">
         <v>84</v>
@@ -12484,7 +12487,7 @@
         <v>158</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>80</v>
@@ -12553,7 +12556,7 @@
         <v>84</v>
       </c>
       <c r="AA3" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AB3" s="27" t="s">
         <v>82</v>
@@ -12574,19 +12577,19 @@
         <v>80</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>43</v>
@@ -12598,7 +12601,7 @@
         <v>43</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O4" s="32" t="s">
         <v>43</v>
@@ -12622,7 +12625,7 @@
         <v>43</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="W4" s="32" t="s">
         <v>43</v>
@@ -12650,31 +12653,31 @@
         <v>164</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>43</v>
@@ -12686,7 +12689,7 @@
         <v>43</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>43</v>
@@ -12710,7 +12713,7 @@
         <v>43</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W5" s="32" t="s">
         <v>43</v>
@@ -12738,31 +12741,31 @@
         <v>168</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>43</v>
@@ -12774,31 +12777,31 @@
         <v>43</v>
       </c>
       <c r="N6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="29" t="s">
         <v>247</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>246</v>
       </c>
       <c r="W6" s="32" t="s">
         <v>43</v>
@@ -12824,7 +12827,7 @@
     <row r="7" ht="36" spans="1:30">
       <c r="A7" s="12"/>
       <c r="B7" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>172</v>
@@ -12854,10 +12857,10 @@
         <v>84</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>84</v>
@@ -12910,67 +12913,67 @@
     <row r="8" ht="36" spans="1:30">
       <c r="A8" s="12"/>
       <c r="B8" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J8" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="29" t="s">
         <v>254</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="29" t="s">
-        <v>253</v>
       </c>
       <c r="W8" s="32" t="s">
         <v>43</v>
@@ -12998,7 +13001,7 @@
         <v>181</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>182</v>
@@ -13010,19 +13013,19 @@
         <v>80</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>43</v>
@@ -13058,7 +13061,7 @@
         <v>43</v>
       </c>
       <c r="V9" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W9" s="32" t="s">
         <v>43</v>
@@ -13084,7 +13087,7 @@
     <row r="10" ht="106" spans="1:30">
       <c r="A10" s="12"/>
       <c r="B10" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>185</v>
@@ -13123,22 +13126,22 @@
         <v>84</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T10" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U10" s="30" t="s">
         <v>84</v>
@@ -13170,67 +13173,67 @@
     <row r="11" ht="36" spans="1:30">
       <c r="A11" s="12"/>
       <c r="B11" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>193</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J11" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="29" t="s">
         <v>267</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>266</v>
       </c>
       <c r="W11" s="32" t="s">
         <v>43</v>
@@ -13258,7 +13261,7 @@
         <v>197</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>198</v>
@@ -13270,19 +13273,19 @@
         <v>80</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>43</v>
@@ -13318,7 +13321,7 @@
         <v>43</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W12" s="32" t="s">
         <v>43</v>
@@ -13344,7 +13347,7 @@
     <row r="13" ht="36" spans="1:30">
       <c r="A13" s="12"/>
       <c r="B13" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>202</v>
@@ -13401,10 +13404,10 @@
         <v>84</v>
       </c>
       <c r="U13" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V13" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W13" s="30" t="s">
         <v>84</v>
@@ -13430,31 +13433,31 @@
     <row r="14" ht="36" spans="1:30">
       <c r="A14" s="12"/>
       <c r="B14" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>206</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>43</v>
@@ -13516,7 +13519,7 @@
     <row r="15" ht="53" spans="1:30">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>210</v>
@@ -13579,13 +13582,13 @@
         <v>84</v>
       </c>
       <c r="W15" s="38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X15" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y15" s="38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z15" s="30" t="s">
         <v>84</v>
@@ -13602,31 +13605,31 @@
     <row r="16" ht="36" spans="1:30">
       <c r="A16" s="12"/>
       <c r="B16" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>215</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>43</v>
@@ -13692,7 +13695,7 @@
         <v>218</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>80</v>
@@ -13701,13 +13704,13 @@
         <v>84</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J17" s="32" t="s">
         <v>43</v>
@@ -13780,64 +13783,64 @@
         <v>80</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>43</v>
@@ -13855,10 +13858,10 @@
       <c r="A19" s="12"/>
       <c r="B19" s="17"/>
       <c r="C19" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>80</v>
@@ -13882,46 +13885,46 @@
         <v>84</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O19" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P19" s="37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R19" s="37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S19" s="37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T19" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U19" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V19" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W19" s="38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X19" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y19" s="38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z19" s="30" t="s">
         <v>84</v>
@@ -14106,13 +14109,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>83</v>
@@ -14127,7 +14130,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>83</v>
@@ -14144,7 +14147,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>25</v>
@@ -14153,13 +14156,13 @@
         <v>165</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>83</v>
@@ -14171,7 +14174,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>130</v>
@@ -14180,7 +14183,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>83</v>
@@ -14197,7 +14200,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
@@ -14210,7 +14213,7 @@
     </row>
     <row r="7" ht="34" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -14225,7 +14228,7 @@
         <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>83</v>
